--- a/Listas/Lista02-resolucao.xlsx
+++ b/Listas/Lista02-resolucao.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ex01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>R1</t>
   </si>
@@ -106,12 +106,84 @@
   <si>
     <t>dtc</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Não rejeitamos Ho</t>
+  </si>
+  <si>
+    <t>as médias são iguais</t>
+  </si>
+  <si>
+    <t>MA:</t>
+  </si>
+  <si>
+    <t>41,4</t>
+  </si>
+  <si>
+    <t>48,3</t>
+  </si>
+  <si>
+    <t>51,2</t>
+  </si>
+  <si>
+    <t>30,3</t>
+  </si>
+  <si>
+    <t>56,8</t>
+  </si>
+  <si>
+    <t>45,7</t>
+  </si>
+  <si>
+    <t>51,7</t>
+  </si>
+  <si>
+    <t>62,4</t>
+  </si>
+  <si>
+    <t>36,8</t>
+  </si>
+  <si>
+    <t>57,3</t>
+  </si>
+  <si>
+    <t>MB:</t>
+  </si>
+  <si>
+    <t>30,7</t>
+  </si>
+  <si>
+    <t>36,3</t>
+  </si>
+  <si>
+    <t>47,2</t>
+  </si>
+  <si>
+    <t>38,7</t>
+  </si>
+  <si>
+    <t>41,9</t>
+  </si>
+  <si>
+    <t>33,2</t>
+  </si>
+  <si>
+    <t>35,1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +193,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -177,17 +257,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1340,11 +1425,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-639170032"/>
-        <c:axId val="-639170576"/>
+        <c:axId val="-1276367536"/>
+        <c:axId val="-1276368080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-639170032"/>
+        <c:axId val="-1276367536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,12 +1472,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-639170576"/>
+        <c:crossAx val="-1276368080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-639170576"/>
+        <c:axId val="-1276368080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,7 +1534,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-639170032"/>
+        <c:crossAx val="-1276367536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2939,11 +3024,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-357441648"/>
-        <c:axId val="-357442736"/>
+        <c:axId val="-1276375696"/>
+        <c:axId val="-1276372432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-357441648"/>
+        <c:axId val="-1276375696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,12 +3071,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-357442736"/>
+        <c:crossAx val="-1276372432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-357442736"/>
+        <c:axId val="-1276372432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3015,7 +3100,2859 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-357441648"/>
+        <c:crossAx val="-1276375696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex02'!$A$26:$A$183</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="158"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.45</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.5500000000000096</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.7500000000000098</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.85</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.9500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.0000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.0500000000000096</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.1500000000000101</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7.2500000000000098</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.3500000000000103</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.4000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.4500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.5500000000000096</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.6500000000000101</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7.7500000000000098</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7.8500000000000103</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7.9500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8.0000000000000107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex02'!$B$26:$B$183</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="158"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66787581846711763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6673835582470905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65570346660708712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63730500800680301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61496645322276922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59047450706055882</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56500035591932007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53931799319859508</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51393805924601277</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48919322164077339</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46529429743865935</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44236800000000015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42048278207871637</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39966677431012299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.37992036842661153</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36122511240365929</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34355003127532341</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32685613103190481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31109960853215457</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.29623413314886793</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28221245874513284</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.26898755056009238</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25651335981026852</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24474534221057104</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23364079049872022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.22315903225216446</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.21326153066496201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.20391191601711237</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19507596828289253</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1867215659563887</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17881861220133669</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.17133894648550299</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16425624766763627</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.15754593287151819</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.15118505526341436</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.1451522029407907</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.13942740046346702</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.13399201405550756</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.12882866113385069</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.1239211245456074</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.11925427169581827</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.11481397860294147</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.11058705881665004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.10656119706118462</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.10272488741964654</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.9067375844207717E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.557860675973022E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.2249173520265154E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.9070272476740681E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.6033660417864088E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.3131615153374458E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.0356899018166728E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.7702725086623417E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.5162725898130459E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.2730924506743899E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.0401707679998538E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.816980108366491E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.6030246300703893E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.3978379543629282E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.2009811929903076E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.0120411199808349E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.8306284765465274E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.6563763988267401E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.4889389590034608E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.327989811062616E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.1732209331650826E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.02434145922891E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.8810765929124506E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.7431665977306629E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.6103658575363006E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.4824420020572756E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.3591750926040694E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.2403568634493669E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.1257900147388823E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0152875531199228E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.9086721765750655E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.805775700224584E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.7064385201146681E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.6105091122415139E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.5178435642748578E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.428305137641053E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.3417638578058587E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.2580961307628963E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.1771843838858289E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.0989167294421388E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.0231866491950896E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.9498926986385978E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.8789382295186221E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.8102311293947187E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.7436835770876449E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.6792118129437627E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.6167359229251414E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.5561796356064443E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.4974701312260265E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4405378620000494E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.3853163829649662E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.3317421926659126E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.2797545830568419E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.2292954980227268E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.1803093999753866E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.1327431440125773E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.0865458591651988E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.0416688362901263E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.9980654221963094E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.9556909196198267E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.9145024926894415E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.8744590775482638E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.8355212978194257E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.7976513846243308E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.7608131008812634E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.7249716696299596E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.6900937061443039E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.6561471536107361E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.6231012221642502E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.5909263310871689E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.5595940539883356E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.5290770667918148E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4993490983750182E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4703848837061504E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.4421601193401917E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.414651421141371E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.3878362841081864E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.3616930441845886E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.3362008419480568E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.3113395880718758E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.2870899304650914E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.2634332229994091E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.2403514957377109E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.2178274265838293E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.1958443142780424E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.1743860526671633E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.1534371061820965E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.1329824864598204E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.1130077300502063E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.0934988771515988E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.0744424513222882E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.0558254401178215E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.0376352766071869E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.0198598217233141E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.0024873474059053E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>9.855065204969881E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9.6890638735160021E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>9.5267635912828774E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>9.3680619772586703E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>9.2128600233477489E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9.0610619657306591E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.9125751617867791E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8.7673099723113157E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8.6251796487725688E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>8.4861002253686351E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>8.3499904156555654E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>8.2167715135309915E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>8.0863672983681432E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7.9587039441063028E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7.8337099321132836E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7.7113159676453144E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7.5914548997384644E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex02'!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex02'!$C$26:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.5913821164255779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5913821164255779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex02'!$D$26:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2216705810174701E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex02'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fobs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex02'!$C$30:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.60810810810810811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60810810810810811</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex02'!$D$30:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1276375152"/>
+        <c:axId val="-1276364816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1276375152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1276364816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1276364816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1276375152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex02'!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex02'!$F$25:$F$228</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="204"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.5000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.4500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.4000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.3500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.2500000000000102</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.1500000000000101</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.1000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.0000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.9500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.8500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.7500000000000102</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.6500000000000101</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.6000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.5000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.4500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.4000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.3500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.2500000000000102</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.1500000000000101</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.1000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.0000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.9500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.9000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.8500000000000101</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.75000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.6500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.6000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.50000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.4500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.4000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.3500000000000101</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.25000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.1500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.1000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.95000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.90000000000001001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.85000000000000997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.80000000000001004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.75000000000001998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.70000000000002005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.65000000000002001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.60000000000001996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.55000000000002003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.50000000000001998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.45000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.40000000000002001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.35000000000002002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.30000000000001997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.25000000000001998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.15000000000002001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-5.0000000000020299E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-2.0428103653102899E-14</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.9999999999980303E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.9999999999980105E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.14999999999998001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.19999999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.24999999999997999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.34999999999997999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.39999999999997998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.44999999999998003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.49999999999998002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.54999999999997995</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.59999999999997999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.64999999999998004</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.69999999999997997</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.74999999999998002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.79999999999997995</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.84999999999997999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.89999999999998004</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.94999999999997997</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.99999999999998002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.0499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.0999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.1499999999999799</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.19999999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.24999999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.2999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.3499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.3999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.44999999999998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.49999999999998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.5499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.5999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.6499999999999799</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.69999999999998</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.74999999999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.7999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.8499999999999801</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.8999999999999799</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.94999999999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.99999999999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.0499999999999701</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.0999999999999699</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.1499999999999702</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.19999999999997</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.2499999999999698</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.2999999999999701</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.3499999999999699</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.3999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.44999999999997</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.4999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.5499999999999701</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.5999999999999699</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.6499999999999702</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.69999999999997</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.7499999999999698</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.7999999999999701</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.8499999999999699</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.8999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.94999999999997</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.9999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.0499999999999701</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.0999999999999699</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.1499999999999702</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.19999999999997</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.2499999999999698</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.2999999999999701</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.3499999999999699</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.3999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.44999999999997</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.4999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.5499999999999701</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.5999999999999699</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.6499999999999702</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.69999999999997</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.7499999999999698</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.7999999999999701</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.8499999999999699</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.8999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.94999999999997</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.9999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4.0499999999999696</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4.0999999999999703</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.1499999999999702</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4.19999999999997</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.2499999999999698</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4.2999999999999696</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4.3499999999999703</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4.3999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4.44999999999997</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4.4999999999999698</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.5499999999999696</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>4.5999999999999703</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4.6499999999999702</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4.69999999999997</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4.74999999999996</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4.7999999999999696</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4.8499999999999703</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4.8999999999999604</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4.9499999999999602</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.99999999999996</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex02'!$G$25:$G$228</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="204"/>
+                <c:pt idx="0">
+                  <c:v>8.8154265732600637E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3856242784970596E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9962286331650783E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.065032439570935E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1351245913782556E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2102598149079903E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2908279505215324E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3772506610774098E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4699841221482964E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5695219417928314E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6763983288416314E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7911915300380978E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9145275578168436E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0470842319994685E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1895955602305008E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3428564835538596E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5077280151267886E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6851428016642326E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8761111387772408E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0817274728826729E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3031774237809093E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5417453632755214E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7988225862884395E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.075916111737442E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3746581509088557E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6968162810808048E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0443043616180726E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4191942285349301E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8237282014526204E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.2603324337832779E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.7316311326452395E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.2404616692154193E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.7898905926887009E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.3832305514249215E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0240581128862383E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.7162324592099374E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0463914917299977E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1271589260685725E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2144082694581308E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3086587405035505E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4104682517215873E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5204356266117408E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.639202813471697E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7674570659202589E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9059330537815385E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.0554148608535529E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2167378180897184E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.3907901118355886E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.5785140969772524E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.7809072341909144E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.9990225589891725E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.233968578035188E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.4869084753940724E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.7590584982288427E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.051685378223039E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.3661026321124313E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.7036655726268618E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.0657648504920057E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.453818339658769E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.8692611724908986E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.3135337302661035E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.7880673981841083E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.2942679044070396E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.8334960808640358E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.407045911083158E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.0161197686340178E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.6618008002830963E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.10345022471944321</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.11066535373955054</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.11826871475737957</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.12626306128595949</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.13464818238600068</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.14342049167762047</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.15257261068387776</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.16209295508951885</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.17196533404987518</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.1821685741897367</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.19267618131327044</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.20345605401479158</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.2144702642381133</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.22567492027545524</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.23702012762135793</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.24845006240500733</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.25990317073232899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.27131250511654065</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.28260620623367183</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.29370813451916256</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.30453865168146282</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.31501554715927771</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.32505509905464597</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.33457325335016141</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.34348689952510353</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.35171521531490768</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.35918104862097161</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.3658123007801849</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.37154327282798361</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.37631593526996182</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.38008108238131599</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.38279933426054996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.38444195375534934</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.38499145083226738</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.38444195375535017</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.38279933426055168</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.38008108238131855</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.37631593526996526</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.37154327282798782</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.36581230078018989</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.35918104862097727</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.35171521531491401</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.34348689952511036</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.33457325335016885</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.3250550990546538</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.31501554715928592</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.30453865168147137</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.29370813451917138</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.28260620623368082</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.27131250511654748</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.25990317073233582</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.24845006240501422</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.23702012762136473</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.22567492027546202</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.21447026423812005</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.20345605401479819</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.19267618131327685</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.18216857418974289</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.17196533404988121</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.16209295508952462</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.15257261068388339</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.14342049167762586</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.13464818238600582</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.12626306128596435</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.11826871475738424</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.11066535373955498</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.10345022471944744</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9.6618008002835001E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9.0161197686343925E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8.4070459110835105E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.8334960808643689E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.2942679044073561E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.7880673981844011E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.3135337302663824E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.8692611724912434E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.4538183396590917E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.0657648504923075E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.7036655726271408E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.3661026321126964E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.0516853782232819E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.759058498229069E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.4869084753942813E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.2339685780353809E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.9990225589893546E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.7809072341910827E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.5785140969774079E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.390790111835733E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.2167378180898509E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.0554148608536771E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.9059330537816541E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.7674570659203651E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.6392028134717958E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.5204356266118326E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.4104682517216732E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.3086587405036296E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.2144082694582035E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.12715892606864E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.0463914917300593E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>9.7162324592105151E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>9.0240581128867639E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8.3832305514254107E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.7898905926891528E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7.2404616692158408E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.7316311326456359E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6.2603324337836387E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5.8237282014528746E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5.4191942285351661E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.0443043616182886E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4.6968162810810069E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4.3746581509090414E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4.0759161117376154E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.7988225862885978E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.5417453632756715E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.3031774237810472E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.0817274728828013E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.8761111387773548E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.685142801664344E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.5077280151268905E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.3428564835539568E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.1895955602305901E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.0470842319995474E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.9145275578169212E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.7911915300381704E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.6763983288416993E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.5695219417928947E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.4699841221483519E-3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.3772506610774614E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.2908279505215823E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.2102598149080529E-3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.1351245913783004E-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.0650324395709749E-3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9.9962286331655771E-4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9.3856242784975269E-4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>8.8154265732605017E-4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>8.2827809854097497E-4</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>7.7850453779606545E-4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>7.3197735883341662E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex02'!$I$26:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-3.4994832973504946</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.4994832973504946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex02'!$J$26:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.7366924113458938E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex02'!$L$26:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.4994832973504928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4994832973504928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex02'!$M$26:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.736692411345912E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex02'!$I$30:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-1.2046069664480845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2046069664480845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex02'!$J$30:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1276364272"/>
+        <c:axId val="-1276379504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1276364272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1276379504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1276379504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1276364272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3105,6 +6042,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4176,6 +7193,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4581,6 +8630,415 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>187820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586533</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>132206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>677991</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>182455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1201452</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91346</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="677991" y="4754455"/>
+          <a:ext cx="523461" cy="289891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>F</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="-25000"/>
+            <a:t>obs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>468561</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>44016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>377452</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>143407</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CaixaDeTexto 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3069300" y="7299581"/>
+          <a:ext cx="521804" cy="289891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>F</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="-25000"/>
+            <a:t>c(5%)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>65500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>18020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>376082</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>136403</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289892</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CaixaDeTexto 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5342283" y="5060675"/>
+          <a:ext cx="523461" cy="289891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="-25000"/>
+            <a:t>obs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>513521</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466155</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>110004</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CaixaDeTexto 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4340086" y="7440113"/>
+          <a:ext cx="565547" cy="289891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="-25000"/>
+            <a:t>c(0,5%)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>182734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>59272</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>91625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CaixaDeTexto 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8199783" y="7421734"/>
+          <a:ext cx="589359" cy="289891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="-25000"/>
+            <a:t>c(0,5%)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -4846,8 +9304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4980,22 +9438,22 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5025,10 +9483,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5041,19 +9499,19 @@
         <v>3.7870435399280673</v>
       </c>
       <c r="E21">
-        <f>_xlfn.T.INV(0.025,7+7)</f>
+        <f>_xlfn.T.INV(0.025,B13+C13-2)</f>
         <v>-2.1447866879178044</v>
       </c>
       <c r="F21">
-        <f>_xlfn.T.INV(1-0.025,7+7)</f>
+        <f>_xlfn.T.INV(1-0.025,B13+C13-2)</f>
         <v>2.1447866879178035</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8125,26 +12583,3437 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(B2:B6)</f>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(C2:C6)</f>
+        <v>6.5</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f>_xlfn.VAR.S(B2:B6)</f>
+        <v>7.5</v>
+      </c>
+      <c r="C8">
+        <f>_xlfn.VAR.S(C2:C6)</f>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <f>_xlfn.STDEV.S(B2:B6)</f>
+        <v>2.7386127875258306</v>
+      </c>
+      <c r="C9">
+        <f>_xlfn.STDEV.S(C2:C6)</f>
+        <v>3.5118845842842465</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f>COUNT(B2:B6)</f>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f>COUNT(C2:C6)</f>
+        <v>4</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f>B8/C8</f>
+        <v>0.60810810810810811</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <f>SQRT(((B10-1)*B8+(C10-1)*C8)/((B10-1)+(C10-1)))</f>
+        <v>3.093772546815388</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <f>(B7-C7)/(F15*SQRT(1/B10+1/C10))</f>
+        <v>-1.2046069664480845</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <f>_xlfn.F.INV(1-0.05,C10-1,B10-1)</f>
+        <v>6.5913821164255779</v>
+      </c>
+      <c r="E18">
+        <f>_xlfn.T.INV(0.005,B10+C10-2)</f>
+        <v>-3.4994832973504946</v>
+      </c>
+      <c r="F18">
+        <f>_xlfn.T.INV(1-0.005,B10+C10-2)</f>
+        <v>3.4994832973504928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>-5</v>
+      </c>
+      <c r="G25">
+        <f>_xlfn.T.DIST(F25,$B$10+$C$10-2,FALSE)</f>
+        <v>8.8154265732600637E-4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <f>_xlfn.F.DIST(A26,7,7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f>B18</f>
+        <v>6.5913821164255779</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>-4.95</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G89" si="0">_xlfn.T.DIST(F26,$B$10+$C$10-2,FALSE)</f>
+        <v>9.3856242784970596E-4</v>
+      </c>
+      <c r="I26">
+        <f>E18</f>
+        <v>-3.4994832973504946</v>
+      </c>
+      <c r="J26">
+        <f>_xlfn.T.DIST(I26,B10+C10-2,FALSE)</f>
+        <v>6.7366924113458938E-3</v>
+      </c>
+      <c r="L26">
+        <f>F18</f>
+        <v>3.4994832973504928</v>
+      </c>
+      <c r="M26">
+        <f>_xlfn.T.DIST(L26,B10+C10-2,FALSE)</f>
+        <v>6.736692411345912E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="B27">
+        <f>_xlfn.F.DIST(A27,$C$10-1,$B$10-1,FALSE)</f>
+        <v>0.66787581846711763</v>
+      </c>
+      <c r="C27">
+        <f>C26</f>
+        <v>6.5913821164255779</v>
+      </c>
+      <c r="D27">
+        <f>_xlfn.F.DIST(C27,$C$10-1,$B$10-1,FALSE)</f>
+        <v>1.2216705810174701E-2</v>
+      </c>
+      <c r="F27">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>9.9962286331650783E-4</v>
+      </c>
+      <c r="I27">
+        <f>I26</f>
+        <v>-3.4994832973504946</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>L26</f>
+        <v>3.4994832973504928</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.249999999999999</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B91" si="1">_xlfn.F.DIST(A28,$C$10-1,$B$10-1,FALSE)</f>
+        <v>0.6673835582470905</v>
+      </c>
+      <c r="F28">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1.065032439570935E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>0.65570346660708712</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>-4.8</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1.1351245913782556E-3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.34999999999999898</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>0.63730500800680301</v>
+      </c>
+      <c r="C30">
+        <f>B15</f>
+        <v>0.60810810810810811</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>-4.75</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>1.2102598149079903E-3</v>
+      </c>
+      <c r="I30">
+        <f>F16</f>
+        <v>-1.2046069664480845</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>0.61496645322276922</v>
+      </c>
+      <c r="C31">
+        <f>B15</f>
+        <v>0.60810810810810811</v>
+      </c>
+      <c r="D31">
+        <v>0.7</v>
+      </c>
+      <c r="F31">
+        <v>-4.7</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>1.2908279505215324E-3</v>
+      </c>
+      <c r="I31">
+        <f>F16</f>
+        <v>-1.2046069664480845</v>
+      </c>
+      <c r="J31">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.45</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>0.59047450706055882</v>
+      </c>
+      <c r="F32">
+        <v>-4.6500000000000004</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1.3772506610774098E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>0.56500035591932007</v>
+      </c>
+      <c r="F33">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1.4699841221482964E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>0.53931799319859508</v>
+      </c>
+      <c r="F34">
+        <v>-4.55</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>1.5695219417928314E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.6</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>0.51393805924601277</v>
+      </c>
+      <c r="F35">
+        <v>-4.5</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>1.6763983288416314E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.65</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>0.48919322164077339</v>
+      </c>
+      <c r="F36">
+        <v>-4.45</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>1.7911915300380978E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.7</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>0.46529429743865935</v>
+      </c>
+      <c r="F37">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>1.9145275578168436E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.75</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>0.44236800000000015</v>
+      </c>
+      <c r="F38">
+        <v>-4.3499999999999996</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>2.0470842319994685E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.8</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>0.42048278207871637</v>
+      </c>
+      <c r="F39">
+        <v>-4.3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>2.1895955602305008E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.85</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>0.39966677431012299</v>
+      </c>
+      <c r="F40">
+        <v>-4.25</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>2.3428564835538596E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.9</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>0.37992036842661153</v>
+      </c>
+      <c r="F41">
+        <v>-4.2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>2.5077280151267886E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.95</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>0.36122511240365929</v>
+      </c>
+      <c r="F42">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>2.6851428016642326E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>0.34355003127532341</v>
+      </c>
+      <c r="F43">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>2.8761111387772408E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1.05</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>0.32685613103190481</v>
+      </c>
+      <c r="F44">
+        <v>-4.05</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>3.0817274728826729E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>0.31109960853215457</v>
+      </c>
+      <c r="F45">
+        <v>-4</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>3.3031774237809093E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>0.29623413314886793</v>
+      </c>
+      <c r="F46">
+        <v>-3.95</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>3.5417453632755214E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.2</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>0.28221245874513284</v>
+      </c>
+      <c r="F47">
+        <v>-3.9</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>3.7988225862884395E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1.25</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>0.26898755056009238</v>
+      </c>
+      <c r="F48">
+        <v>-3.85</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>4.075916111737442E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1.3</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>0.25651335981026852</v>
+      </c>
+      <c r="F49">
+        <v>-3.8</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>4.3746581509088557E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1.35</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>0.24474534221057104</v>
+      </c>
+      <c r="F50">
+        <v>-3.75</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>4.6968162810808048E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.4</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>0.23364079049872022</v>
+      </c>
+      <c r="F51">
+        <v>-3.7</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>5.0443043616180726E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1.45</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>0.22315903225216446</v>
+      </c>
+      <c r="F52">
+        <v>-3.65</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>5.4191942285349301E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.5</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>0.21326153066496201</v>
+      </c>
+      <c r="F53">
+        <v>-3.6</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>5.8237282014526204E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.55</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>0.20391191601711237</v>
+      </c>
+      <c r="F54">
+        <v>-3.55000000000001</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>6.2603324337832779E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1.6</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>0.19507596828289253</v>
+      </c>
+      <c r="F55">
+        <v>-3.5000000000000102</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>6.7316311326452395E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1.65</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>0.1867215659563887</v>
+      </c>
+      <c r="F56">
+        <v>-3.4500000000000099</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>7.2404616692154193E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1.7</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>0.17881861220133669</v>
+      </c>
+      <c r="F57">
+        <v>-3.4000000000000101</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>7.7898905926887009E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1.75</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>0.17133894648550299</v>
+      </c>
+      <c r="F58">
+        <v>-3.3500000000000099</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>8.3832305514249215E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1.8</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>0.16425624766763627</v>
+      </c>
+      <c r="F59">
+        <v>-3.30000000000001</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>9.0240581128862383E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1.85</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>0.15754593287151819</v>
+      </c>
+      <c r="F60">
+        <v>-3.2500000000000102</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>9.7162324592099374E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1.9</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>0.15118505526341436</v>
+      </c>
+      <c r="F61">
+        <v>-3.2000000000000099</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>1.0463914917299977E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1.95</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>0.1451522029407907</v>
+      </c>
+      <c r="F62">
+        <v>-3.1500000000000101</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>1.1271589260685725E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>0.13942740046346702</v>
+      </c>
+      <c r="F63">
+        <v>-3.1000000000000099</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>1.2144082694581308E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>0.13399201405550756</v>
+      </c>
+      <c r="F64">
+        <v>-3.05000000000001</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>1.3086587405035505E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2.1</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>0.12882866113385069</v>
+      </c>
+      <c r="F65">
+        <v>-3.0000000000000102</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>1.4104682517215873E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2.15</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="1"/>
+        <v>0.1239211245456074</v>
+      </c>
+      <c r="F66">
+        <v>-2.9500000000000099</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>1.5204356266117408E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="1"/>
+        <v>0.11925427169581827</v>
+      </c>
+      <c r="F67">
+        <v>-2.9000000000000101</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="0"/>
+        <v>1.639202813471697E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2.25</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>0.11481397860294147</v>
+      </c>
+      <c r="F68">
+        <v>-2.8500000000000099</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="0"/>
+        <v>1.7674570659202589E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>0.11058705881665004</v>
+      </c>
+      <c r="F69">
+        <v>-2.80000000000001</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="0"/>
+        <v>1.9059330537815385E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2.35</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>0.10656119706118462</v>
+      </c>
+      <c r="F70">
+        <v>-2.7500000000000102</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="0"/>
+        <v>2.0554148608535529E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2.4</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>0.10272488741964654</v>
+      </c>
+      <c r="F71">
+        <v>-2.7000000000000099</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="0"/>
+        <v>2.2167378180897184E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>9.9067375844207717E-2</v>
+      </c>
+      <c r="F72">
+        <v>-2.6500000000000101</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="0"/>
+        <v>2.3907901118355886E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2.5</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>9.557860675973022E-2</v>
+      </c>
+      <c r="F73">
+        <v>-2.6000000000000099</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="0"/>
+        <v>2.5785140969772524E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>9.2249173520265154E-2</v>
+      </c>
+      <c r="F74">
+        <v>-2.55000000000001</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="0"/>
+        <v>2.7809072341909144E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2.6</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>8.9070272476740681E-2</v>
+      </c>
+      <c r="F75">
+        <v>-2.5000000000000102</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="0"/>
+        <v>2.9990225589891725E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2.65</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>8.6033660417864088E-2</v>
+      </c>
+      <c r="F76">
+        <v>-2.4500000000000099</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="0"/>
+        <v>3.233968578035188E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2.7</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>8.3131615153374458E-2</v>
+      </c>
+      <c r="F77">
+        <v>-2.4000000000000101</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="0"/>
+        <v>3.4869084753940724E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2.75</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>8.0356899018166728E-2</v>
+      </c>
+      <c r="F78">
+        <v>-2.3500000000000099</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="0"/>
+        <v>3.7590584982288427E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2.8</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>7.7702725086623417E-2</v>
+      </c>
+      <c r="F79">
+        <v>-2.30000000000001</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="0"/>
+        <v>4.051685378223039E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2.85</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>7.5162725898130459E-2</v>
+      </c>
+      <c r="F80">
+        <v>-2.2500000000000102</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="0"/>
+        <v>4.3661026321124313E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2.9</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>7.2730924506743899E-2</v>
+      </c>
+      <c r="F81">
+        <v>-2.2000000000000099</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="0"/>
+        <v>4.7036655726268618E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2.95</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>7.0401707679998538E-2</v>
+      </c>
+      <c r="F82">
+        <v>-2.1500000000000101</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="0"/>
+        <v>5.0657648504920057E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>6.816980108366491E-2</v>
+      </c>
+      <c r="F83">
+        <v>-2.1000000000000099</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="0"/>
+        <v>5.453818339658769E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3.05</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>6.6030246300703893E-2</v>
+      </c>
+      <c r="F84">
+        <v>-2.05000000000001</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="0"/>
+        <v>5.8692611724908986E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3.1</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>6.3978379543629282E-2</v>
+      </c>
+      <c r="F85">
+        <v>-2.0000000000000102</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="0"/>
+        <v>6.3135337302661035E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3.15</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>6.2009811929903076E-2</v>
+      </c>
+      <c r="F86">
+        <v>-1.9500000000000099</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="0"/>
+        <v>6.7880673981841083E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3.2</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>6.0120411199808349E-2</v>
+      </c>
+      <c r="F87">
+        <v>-1.9000000000000099</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="0"/>
+        <v>7.2942679044070396E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3.25</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>5.8306284765465274E-2</v>
+      </c>
+      <c r="F88">
+        <v>-1.8500000000000101</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="0"/>
+        <v>7.8334960808640358E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3.3</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>5.6563763988267401E-2</v>
+      </c>
+      <c r="F89">
+        <v>-1.80000000000001</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="0"/>
+        <v>8.407045911083158E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3.35</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>5.4889389590034608E-2</v>
+      </c>
+      <c r="F90">
+        <v>-1.75000000000001</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ref="G90:G153" si="2">_xlfn.T.DIST(F90,$B$10+$C$10-2,FALSE)</f>
+        <v>9.0161197686340178E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3.4</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>5.327989811062616E-2</v>
+      </c>
+      <c r="F91">
+        <v>-1.7000000000000099</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>9.6618008002830963E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3.45</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ref="B92:B155" si="3">_xlfn.F.DIST(A92,$C$10-1,$B$10-1,FALSE)</f>
+        <v>5.1732209331650826E-2</v>
+      </c>
+      <c r="F92">
+        <v>-1.6500000000000099</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>0.10345022471944321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3.5</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="3"/>
+        <v>5.02434145922891E-2</v>
+      </c>
+      <c r="F93">
+        <v>-1.6000000000000101</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>0.11066535373955054</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3.55</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="3"/>
+        <v>4.8810765929124506E-2</v>
+      </c>
+      <c r="F94">
+        <v>-1.55000000000001</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>0.11826871475737957</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3.6</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="3"/>
+        <v>4.7431665977306629E-2</v>
+      </c>
+      <c r="F95">
+        <v>-1.50000000000001</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>0.12626306128595949</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3.65</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="3"/>
+        <v>4.6103658575363006E-2</v>
+      </c>
+      <c r="F96">
+        <v>-1.4500000000000099</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>0.13464818238600068</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3.7</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="3"/>
+        <v>4.4824420020572756E-2</v>
+      </c>
+      <c r="F97">
+        <v>-1.4000000000000099</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>0.14342049167762047</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3.75</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="3"/>
+        <v>4.3591750926040694E-2</v>
+      </c>
+      <c r="F98">
+        <v>-1.3500000000000101</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>0.15257261068387776</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3.8</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="3"/>
+        <v>4.2403568634493669E-2</v>
+      </c>
+      <c r="F99">
+        <v>-1.30000000000001</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>0.16209295508951885</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3.85</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="3"/>
+        <v>4.1257900147388823E-2</v>
+      </c>
+      <c r="F100">
+        <v>-1.25000000000001</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>0.17196533404987518</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3.9</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="3"/>
+        <v>4.0152875531199228E-2</v>
+      </c>
+      <c r="F101">
+        <v>-1.2000000000000099</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>0.1821685741897367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3.95</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="3"/>
+        <v>3.9086721765750655E-2</v>
+      </c>
+      <c r="F102">
+        <v>-1.1500000000000099</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="2"/>
+        <v>0.19267618131327044</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="3"/>
+        <v>3.805775700224584E-2</v>
+      </c>
+      <c r="F103">
+        <v>-1.1000000000000101</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>0.20345605401479158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4.05</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="3"/>
+        <v>3.7064385201146681E-2</v>
+      </c>
+      <c r="F104">
+        <v>-1.05000000000001</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>0.2144702642381133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="3"/>
+        <v>3.6105091122415139E-2</v>
+      </c>
+      <c r="F105">
+        <v>-1.00000000000001</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>0.22567492027545524</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="3"/>
+        <v>3.5178435642748578E-2</v>
+      </c>
+      <c r="F106">
+        <v>-0.95000000000000995</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="2"/>
+        <v>0.23702012762135793</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>4.2</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="3"/>
+        <v>3.428305137641053E-2</v>
+      </c>
+      <c r="F107">
+        <v>-0.90000000000001001</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>0.24845006240500733</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4.25</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="3"/>
+        <v>3.3417638578058587E-2</v>
+      </c>
+      <c r="F108">
+        <v>-0.85000000000000997</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="2"/>
+        <v>0.25990317073232899</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4.3</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="3"/>
+        <v>3.2580961307628963E-2</v>
+      </c>
+      <c r="F109">
+        <v>-0.80000000000001004</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="2"/>
+        <v>0.27131250511654065</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="3"/>
+        <v>3.1771843838858289E-2</v>
+      </c>
+      <c r="F110">
+        <v>-0.75000000000001998</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="2"/>
+        <v>0.28260620623367183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="3"/>
+        <v>3.0989167294421388E-2</v>
+      </c>
+      <c r="F111">
+        <v>-0.70000000000002005</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="2"/>
+        <v>0.29370813451916256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>4.45</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="3"/>
+        <v>3.0231866491950896E-2</v>
+      </c>
+      <c r="F112">
+        <v>-0.65000000000002001</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="2"/>
+        <v>0.30453865168146282</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4.5</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="3"/>
+        <v>2.9498926986385978E-2</v>
+      </c>
+      <c r="F113">
+        <v>-0.60000000000001996</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="2"/>
+        <v>0.31501554715927771</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>4.55</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="3"/>
+        <v>2.8789382295186221E-2</v>
+      </c>
+      <c r="F114">
+        <v>-0.55000000000002003</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="2"/>
+        <v>0.32505509905464597</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="3"/>
+        <v>2.8102311293947187E-2</v>
+      </c>
+      <c r="F115">
+        <v>-0.50000000000001998</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="2"/>
+        <v>0.33457325335016141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="3"/>
+        <v>2.7436835770876449E-2</v>
+      </c>
+      <c r="F116">
+        <v>-0.45000000000002</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="2"/>
+        <v>0.34348689952510353</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>4.7</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="3"/>
+        <v>2.6792118129437627E-2</v>
+      </c>
+      <c r="F117">
+        <v>-0.40000000000002001</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="2"/>
+        <v>0.35171521531490768</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>4.75</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="3"/>
+        <v>2.6167359229251414E-2</v>
+      </c>
+      <c r="F118">
+        <v>-0.35000000000002002</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="2"/>
+        <v>0.35918104862097161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>4.8</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="3"/>
+        <v>2.5561796356064443E-2</v>
+      </c>
+      <c r="F119">
+        <v>-0.30000000000001997</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="2"/>
+        <v>0.3658123007801849</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="3"/>
+        <v>2.4974701312260265E-2</v>
+      </c>
+      <c r="F120">
+        <v>-0.25000000000001998</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="2"/>
+        <v>0.37154327282798361</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="3"/>
+        <v>2.4405378620000494E-2</v>
+      </c>
+      <c r="F121">
+        <v>-0.20000000000002</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="2"/>
+        <v>0.37631593526996182</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>4.95</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="3"/>
+        <v>2.3853163829649662E-2</v>
+      </c>
+      <c r="F122">
+        <v>-0.15000000000002001</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="2"/>
+        <v>0.38008108238131599</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="3"/>
+        <v>2.3317421926659126E-2</v>
+      </c>
+      <c r="F123">
+        <v>-0.10000000000002</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="2"/>
+        <v>0.38279933426054996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>5.05</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="3"/>
+        <v>2.2797545830568419E-2</v>
+      </c>
+      <c r="F124">
+        <v>-5.0000000000020299E-2</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="2"/>
+        <v>0.38444195375534934</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="3"/>
+        <v>2.2292954980227268E-2</v>
+      </c>
+      <c r="F125">
+        <v>-2.0428103653102899E-14</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="2"/>
+        <v>0.38499145083226738</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5.15</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="3"/>
+        <v>2.1803093999753866E-2</v>
+      </c>
+      <c r="F126">
+        <v>4.9999999999980303E-2</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="2"/>
+        <v>0.38444195375535017</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>5.2</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="3"/>
+        <v>2.1327431440125773E-2</v>
+      </c>
+      <c r="F127">
+        <v>9.9999999999980105E-2</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="2"/>
+        <v>0.38279933426055168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>5.25</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="3"/>
+        <v>2.0865458591651988E-2</v>
+      </c>
+      <c r="F128">
+        <v>0.14999999999998001</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="2"/>
+        <v>0.38008108238131855</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>5.3</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="3"/>
+        <v>2.0416688362901263E-2</v>
+      </c>
+      <c r="F129">
+        <v>0.19999999999998</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="2"/>
+        <v>0.37631593526996526</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5.35</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="3"/>
+        <v>1.9980654221963094E-2</v>
+      </c>
+      <c r="F130">
+        <v>0.24999999999997999</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="2"/>
+        <v>0.37154327282798782</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>5.4</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="3"/>
+        <v>1.9556909196198267E-2</v>
+      </c>
+      <c r="F131">
+        <v>0.29999999999998</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="2"/>
+        <v>0.36581230078018989</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5.45</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="3"/>
+        <v>1.9145024926894415E-2</v>
+      </c>
+      <c r="F132">
+        <v>0.34999999999997999</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="2"/>
+        <v>0.35918104862097727</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>5.5</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="3"/>
+        <v>1.8744590775482638E-2</v>
+      </c>
+      <c r="F133">
+        <v>0.39999999999997998</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="2"/>
+        <v>0.35171521531491401</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>5.55</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="3"/>
+        <v>1.8355212978194257E-2</v>
+      </c>
+      <c r="F134">
+        <v>0.44999999999998003</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="2"/>
+        <v>0.34348689952511036</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5.6</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="3"/>
+        <v>1.7976513846243308E-2</v>
+      </c>
+      <c r="F135">
+        <v>0.49999999999998002</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="2"/>
+        <v>0.33457325335016885</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>5.65</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="3"/>
+        <v>1.7608131008812634E-2</v>
+      </c>
+      <c r="F136">
+        <v>0.54999999999997995</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="2"/>
+        <v>0.3250550990546538</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>5.7</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="3"/>
+        <v>1.7249716696299596E-2</v>
+      </c>
+      <c r="F137">
+        <v>0.59999999999997999</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="2"/>
+        <v>0.31501554715928592</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>5.75</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="3"/>
+        <v>1.6900937061443039E-2</v>
+      </c>
+      <c r="F138">
+        <v>0.64999999999998004</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="2"/>
+        <v>0.30453865168147137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>5.8</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="3"/>
+        <v>1.6561471536107361E-2</v>
+      </c>
+      <c r="F139">
+        <v>0.69999999999997997</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="2"/>
+        <v>0.29370813451917138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>5.85</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="3"/>
+        <v>1.6231012221642502E-2</v>
+      </c>
+      <c r="F140">
+        <v>0.74999999999998002</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="2"/>
+        <v>0.28260620623368082</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>5.9</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="3"/>
+        <v>1.5909263310871689E-2</v>
+      </c>
+      <c r="F141">
+        <v>0.79999999999997995</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="2"/>
+        <v>0.27131250511654748</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>5.95</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="3"/>
+        <v>1.5595940539883356E-2</v>
+      </c>
+      <c r="F142">
+        <v>0.84999999999997999</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="2"/>
+        <v>0.25990317073233582</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="3"/>
+        <v>1.5290770667918148E-2</v>
+      </c>
+      <c r="F143">
+        <v>0.89999999999998004</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="2"/>
+        <v>0.24845006240501422</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>6.05</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="3"/>
+        <v>1.4993490983750182E-2</v>
+      </c>
+      <c r="F144">
+        <v>0.94999999999997997</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="2"/>
+        <v>0.23702012762136473</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>6.1</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="3"/>
+        <v>1.4703848837061504E-2</v>
+      </c>
+      <c r="F145">
+        <v>0.99999999999998002</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="2"/>
+        <v>0.22567492027546202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>6.15</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="3"/>
+        <v>1.4421601193401917E-2</v>
+      </c>
+      <c r="F146">
+        <v>1.0499999999999801</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="2"/>
+        <v>0.21447026423812005</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>6.2</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="3"/>
+        <v>1.414651421141371E-2</v>
+      </c>
+      <c r="F147">
+        <v>1.0999999999999801</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="2"/>
+        <v>0.20345605401479819</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>6.25</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="3"/>
+        <v>1.3878362841081864E-2</v>
+      </c>
+      <c r="F148">
+        <v>1.1499999999999799</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="2"/>
+        <v>0.19267618131327685</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>6.3</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="3"/>
+        <v>1.3616930441845886E-2</v>
+      </c>
+      <c r="F149">
+        <v>1.19999999999998</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="2"/>
+        <v>0.18216857418974289</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>6.35</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="3"/>
+        <v>1.3362008419480568E-2</v>
+      </c>
+      <c r="F150">
+        <v>1.24999999999998</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="2"/>
+        <v>0.17196533404988121</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>6.4</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="3"/>
+        <v>1.3113395880718758E-2</v>
+      </c>
+      <c r="F151">
+        <v>1.2999999999999801</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="2"/>
+        <v>0.16209295508952462</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>6.45</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="3"/>
+        <v>1.2870899304650914E-2</v>
+      </c>
+      <c r="F152">
+        <v>1.3499999999999801</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="2"/>
+        <v>0.15257261068388339</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>6.5000000000000098</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="3"/>
+        <v>1.2634332229994091E-2</v>
+      </c>
+      <c r="F153">
+        <v>1.3999999999999799</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="2"/>
+        <v>0.14342049167762586</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>6.5500000000000096</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="3"/>
+        <v>1.2403514957377109E-2</v>
+      </c>
+      <c r="F154">
+        <v>1.44999999999998</v>
+      </c>
+      <c r="G154">
+        <f t="shared" ref="G154:G217" si="4">_xlfn.T.DIST(F154,$B$10+$C$10-2,FALSE)</f>
+        <v>0.13464818238600582</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>6.6</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="3"/>
+        <v>1.2178274265838293E-2</v>
+      </c>
+      <c r="F155">
+        <v>1.49999999999998</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="4"/>
+        <v>0.12626306128596435</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>6.65</v>
+      </c>
+      <c r="B156">
+        <f t="shared" ref="B156:B183" si="5">_xlfn.F.DIST(A156,$C$10-1,$B$10-1,FALSE)</f>
+        <v>1.1958443142780424E-2</v>
+      </c>
+      <c r="F156">
+        <v>1.5499999999999801</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="4"/>
+        <v>0.11826871475738424</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>6.7</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="5"/>
+        <v>1.1743860526671633E-2</v>
+      </c>
+      <c r="F157">
+        <v>1.5999999999999801</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="4"/>
+        <v>0.11066535373955498</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>6.7500000000000098</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="5"/>
+        <v>1.1534371061820965E-2</v>
+      </c>
+      <c r="F158">
+        <v>1.6499999999999799</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="4"/>
+        <v>0.10345022471944744</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>6.8000000000000096</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="5"/>
+        <v>1.1329824864598204E-2</v>
+      </c>
+      <c r="F159">
+        <v>1.69999999999998</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="4"/>
+        <v>9.6618008002835001E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>6.85</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="5"/>
+        <v>1.1130077300502063E-2</v>
+      </c>
+      <c r="F160">
+        <v>1.74999999999998</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="4"/>
+        <v>9.0161197686343925E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>6.9000000000000101</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="5"/>
+        <v>1.0934988771515988E-2</v>
+      </c>
+      <c r="F161">
+        <v>1.7999999999999801</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="4"/>
+        <v>8.4070459110835105E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>6.9500000000000099</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="5"/>
+        <v>1.0744424513222882E-2</v>
+      </c>
+      <c r="F162">
+        <v>1.8499999999999801</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="4"/>
+        <v>7.8334960808643689E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>7.0000000000000098</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="5"/>
+        <v>1.0558254401178215E-2</v>
+      </c>
+      <c r="F163">
+        <v>1.8999999999999799</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="4"/>
+        <v>7.2942679044073561E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>7.0500000000000096</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="5"/>
+        <v>1.0376352766071869E-2</v>
+      </c>
+      <c r="F164">
+        <v>1.94999999999998</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="4"/>
+        <v>6.7880673981844011E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>7.1</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="5"/>
+        <v>1.0198598217233141E-2</v>
+      </c>
+      <c r="F165">
+        <v>1.99999999999998</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="4"/>
+        <v>6.3135337302663824E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>7.1500000000000101</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="5"/>
+        <v>1.0024873474059053E-2</v>
+      </c>
+      <c r="F166">
+        <v>2.0499999999999701</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="4"/>
+        <v>5.8692611724912434E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>7.2000000000000099</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="5"/>
+        <v>9.855065204969881E-3</v>
+      </c>
+      <c r="F167">
+        <v>2.0999999999999699</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="4"/>
+        <v>5.4538183396590917E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>7.2500000000000098</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="5"/>
+        <v>9.6890638735160021E-3</v>
+      </c>
+      <c r="F168">
+        <v>2.1499999999999702</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="4"/>
+        <v>5.0657648504923075E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>7.3000000000000096</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="5"/>
+        <v>9.5267635912828774E-3</v>
+      </c>
+      <c r="F169">
+        <v>2.19999999999997</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="4"/>
+        <v>4.7036655726271408E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>7.3500000000000103</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="5"/>
+        <v>9.3680619772586703E-3</v>
+      </c>
+      <c r="F170">
+        <v>2.2499999999999698</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="4"/>
+        <v>4.3661026321126964E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>7.4000000000000101</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="5"/>
+        <v>9.2128600233477489E-3</v>
+      </c>
+      <c r="F171">
+        <v>2.2999999999999701</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="4"/>
+        <v>4.0516853782232819E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>7.4500000000000099</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="5"/>
+        <v>9.0610619657306591E-3</v>
+      </c>
+      <c r="F172">
+        <v>2.3499999999999699</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="4"/>
+        <v>3.759058498229069E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>7.5000000000000098</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="5"/>
+        <v>8.9125751617867791E-3</v>
+      </c>
+      <c r="F173">
+        <v>2.3999999999999702</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="4"/>
+        <v>3.4869084753942813E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>7.5500000000000096</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="5"/>
+        <v>8.7673099723113157E-3</v>
+      </c>
+      <c r="F174">
+        <v>2.44999999999997</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="4"/>
+        <v>3.2339685780353809E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>7.6000000000000103</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="5"/>
+        <v>8.6251796487725688E-3</v>
+      </c>
+      <c r="F175">
+        <v>2.4999999999999698</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="4"/>
+        <v>2.9990225589893546E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>7.6500000000000101</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="5"/>
+        <v>8.4861002253686351E-3</v>
+      </c>
+      <c r="F176">
+        <v>2.5499999999999701</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="4"/>
+        <v>2.7809072341910827E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>7.7000000000000099</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="5"/>
+        <v>8.3499904156555654E-3</v>
+      </c>
+      <c r="F177">
+        <v>2.5999999999999699</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="4"/>
+        <v>2.5785140969774079E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>7.7500000000000098</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="5"/>
+        <v>8.2167715135309915E-3</v>
+      </c>
+      <c r="F178">
+        <v>2.6499999999999702</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="4"/>
+        <v>2.390790111835733E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>7.8000000000000096</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="5"/>
+        <v>8.0863672983681432E-3</v>
+      </c>
+      <c r="F179">
+        <v>2.69999999999997</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="4"/>
+        <v>2.2167378180898509E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>7.8500000000000103</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="5"/>
+        <v>7.9587039441063028E-3</v>
+      </c>
+      <c r="F180">
+        <v>2.7499999999999698</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="4"/>
+        <v>2.0554148608536771E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>7.9000000000000101</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="5"/>
+        <v>7.8337099321132836E-3</v>
+      </c>
+      <c r="F181">
+        <v>2.7999999999999701</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="4"/>
+        <v>1.9059330537816541E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>7.9500000000000099</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="5"/>
+        <v>7.7113159676453144E-3</v>
+      </c>
+      <c r="F182">
+        <v>2.8499999999999699</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="4"/>
+        <v>1.7674570659203651E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>8.0000000000000107</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="5"/>
+        <v>7.5914548997384644E-3</v>
+      </c>
+      <c r="F183">
+        <v>2.8999999999999702</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="4"/>
+        <v>1.6392028134717958E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>2.94999999999997</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="4"/>
+        <v>1.5204356266118326E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>2.9999999999999698</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="4"/>
+        <v>1.4104682517216732E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>3.0499999999999701</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="4"/>
+        <v>1.3086587405036296E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>3.0999999999999699</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="4"/>
+        <v>1.2144082694582035E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>3.1499999999999702</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="4"/>
+        <v>1.12715892606864E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>3.19999999999997</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="4"/>
+        <v>1.0463914917300593E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>3.2499999999999698</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="4"/>
+        <v>9.7162324592105151E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>3.2999999999999701</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="4"/>
+        <v>9.0240581128867639E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>3.3499999999999699</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="4"/>
+        <v>8.3832305514254107E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>3.3999999999999702</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="4"/>
+        <v>7.7898905926891528E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>3.44999999999997</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="4"/>
+        <v>7.2404616692158408E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>3.4999999999999698</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="4"/>
+        <v>6.7316311326456359E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>3.5499999999999701</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="4"/>
+        <v>6.2603324337836387E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>3.5999999999999699</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="4"/>
+        <v>5.8237282014528746E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <v>3.6499999999999702</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="4"/>
+        <v>5.4191942285351661E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>3.69999999999997</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="4"/>
+        <v>5.0443043616182886E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>3.7499999999999698</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="4"/>
+        <v>4.6968162810810069E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>3.7999999999999701</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="4"/>
+        <v>4.3746581509090414E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>3.8499999999999699</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="4"/>
+        <v>4.0759161117376154E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>3.8999999999999702</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="4"/>
+        <v>3.7988225862885978E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>3.94999999999997</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="4"/>
+        <v>3.5417453632756715E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>3.9999999999999698</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="4"/>
+        <v>3.3031774237810472E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>4.0499999999999696</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="4"/>
+        <v>3.0817274728828013E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>4.0999999999999703</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="4"/>
+        <v>2.8761111387773548E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <v>4.1499999999999702</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="4"/>
+        <v>2.685142801664344E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>4.19999999999997</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="4"/>
+        <v>2.5077280151268905E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <v>4.2499999999999698</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="4"/>
+        <v>2.3428564835539568E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>4.2999999999999696</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="4"/>
+        <v>2.1895955602305901E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>4.3499999999999703</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="4"/>
+        <v>2.0470842319995474E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>4.3999999999999702</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="4"/>
+        <v>1.9145275578169212E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>4.44999999999997</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="4"/>
+        <v>1.7911915300381704E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>4.4999999999999698</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="4"/>
+        <v>1.6763983288416993E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>4.5499999999999696</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="4"/>
+        <v>1.5695219417928947E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>4.5999999999999703</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="4"/>
+        <v>1.4699841221483519E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>4.6499999999999702</v>
+      </c>
+      <c r="G218">
+        <f t="shared" ref="G218:G228" si="6">_xlfn.T.DIST(F218,$B$10+$C$10-2,FALSE)</f>
+        <v>1.3772506610774614E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>4.69999999999997</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="6"/>
+        <v>1.2908279505215823E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>4.74999999999996</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="6"/>
+        <v>1.2102598149080529E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>4.7999999999999696</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="6"/>
+        <v>1.1351245913783004E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>4.8499999999999703</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="6"/>
+        <v>1.0650324395709749E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>4.8999999999999604</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="6"/>
+        <v>9.9962286331655771E-4</v>
+      </c>
+    </row>
+    <row r="224" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>4.9499999999999602</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="6"/>
+        <v>9.3856242784975269E-4</v>
+      </c>
+    </row>
+    <row r="225" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>4.99999999999996</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="6"/>
+        <v>8.8154265732605017E-4</v>
+      </c>
+    </row>
+    <row r="226" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>5.05</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="6"/>
+        <v>8.2827809854097497E-4</v>
+      </c>
+    </row>
+    <row r="227" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="6"/>
+        <v>7.7850453779606545E-4</v>
+      </c>
+    </row>
+    <row r="228" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>5.15</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="6"/>
+        <v>7.3197735883341662E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:G12"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/Listas/Lista02-resolucao.xlsx
+++ b/Listas/Lista02-resolucao.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Ex01" sheetId="1" r:id="rId1"/>
@@ -1377,11 +1377,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1937701920"/>
-        <c:axId val="-1937694848"/>
+        <c:axId val="-1556205408"/>
+        <c:axId val="-1556205952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1937701920"/>
+        <c:axId val="-1556205408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,12 +1424,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937694848"/>
+        <c:crossAx val="-1556205952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1937694848"/>
+        <c:axId val="-1556205952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1486,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937701920"/>
+        <c:crossAx val="-1556205408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2976,11 +2976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1937692672"/>
-        <c:axId val="-1937692128"/>
+        <c:axId val="-1556213024"/>
+        <c:axId val="-1556211936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1937692672"/>
+        <c:axId val="-1556213024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,12 +3023,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937692128"/>
+        <c:crossAx val="-1556211936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1937692128"/>
+        <c:axId val="-1556211936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3052,7 +3052,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1937692672"/>
+        <c:crossAx val="-1556213024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4195,10 +4195,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.60810810810810811</c:v>
+                  <c:v>1.6444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60810810810810811</c:v>
+                  <c:v>1.6444444444444446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4228,11 +4228,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1937705728"/>
-        <c:axId val="-1937698112"/>
+        <c:axId val="-1556202144"/>
+        <c:axId val="-1556201056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1937705728"/>
+        <c:axId val="-1556202144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -4276,12 +4276,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937698112"/>
+        <c:crossAx val="-1556201056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1937698112"/>
+        <c:axId val="-1556201056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4338,7 +4338,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937705728"/>
+        <c:crossAx val="-1556202144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5826,11 +5826,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1937701376"/>
-        <c:axId val="-1937697024"/>
+        <c:axId val="-1556199424"/>
+        <c:axId val="-1556199968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1937701376"/>
+        <c:axId val="-1556199424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -5875,12 +5875,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937697024"/>
+        <c:crossAx val="-1556199968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1937697024"/>
+        <c:axId val="-1556199968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5904,7 +5904,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1937701376"/>
+        <c:crossAx val="-1556199424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7090,11 +7090,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1863760608"/>
-        <c:axId val="-1863761152"/>
+        <c:axId val="-1556206496"/>
+        <c:axId val="-1556209216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1863760608"/>
+        <c:axId val="-1556206496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -7138,12 +7138,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1863761152"/>
+        <c:crossAx val="-1556209216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1863761152"/>
+        <c:axId val="-1556209216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7200,7 +7200,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1863760608"/>
+        <c:crossAx val="-1556206496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8688,11 +8688,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1863769856"/>
-        <c:axId val="-1863770400"/>
+        <c:axId val="-1556202688"/>
+        <c:axId val="-1556207584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1863769856"/>
+        <c:axId val="-1556202688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -8737,12 +8737,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1863770400"/>
+        <c:crossAx val="-1556207584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1863770400"/>
+        <c:axId val="-1556207584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8766,7 +8766,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1863769856"/>
+        <c:crossAx val="-1556202688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9942,11 +9942,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1937695392"/>
-        <c:axId val="-1937699744"/>
+        <c:axId val="-1556203776"/>
+        <c:axId val="-1556198880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1937695392"/>
+        <c:axId val="-1556203776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -9990,12 +9990,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937699744"/>
+        <c:crossAx val="-1556198880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1937699744"/>
+        <c:axId val="-1556198880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10052,7 +10052,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937695392"/>
+        <c:crossAx val="-1556203776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11540,11 +11540,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1937706272"/>
-        <c:axId val="-1937705184"/>
+        <c:axId val="-1556198336"/>
+        <c:axId val="-1556203232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1937706272"/>
+        <c:axId val="-1556198336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -11589,12 +11589,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937705184"/>
+        <c:crossAx val="-1556203232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1937705184"/>
+        <c:axId val="-1556203232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11618,7 +11618,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1937706272"/>
+        <c:crossAx val="-1556198336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -28756,7 +28756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32035,8 +32037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32230,8 +32232,8 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <f>B8/C8</f>
-        <v>0.60810810810810811</v>
+        <f>C8/B8</f>
+        <v>1.6444444444444446</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -32467,7 +32469,7 @@
       </c>
       <c r="C30">
         <f>B15</f>
-        <v>0.60810810810810811</v>
+        <v>1.6444444444444446</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -32497,7 +32499,7 @@
       </c>
       <c r="C31">
         <f>B15</f>
-        <v>0.60810810810810811</v>
+        <v>1.6444444444444446</v>
       </c>
       <c r="D31">
         <v>0.7</v>
